--- a/YaP_Kyrsovaya/Resources/Scoreboard.xlsx
+++ b/YaP_Kyrsovaya/Resources/Scoreboard.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\Laba1\YaP_Kyrsovaya\YaP_Kyrsovaya\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A831B-A0EA-4B5B-8FB0-D31F4F5DD431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73DAA3-F89B-44F2-9B6E-7FCD5D1E4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6675" yWindow="2430" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>Nickname</t>
   </si>
@@ -52,8 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,16 +369,16 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1" style="1"/>
-    <col min="2" max="2" width="58" customWidth="1" style="1"/>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,87 +386,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,7 +474,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -483,7 +482,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +490,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -499,7 +498,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +506,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,7 +514,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +522,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +530,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,7 +538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +546,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -555,7 +554,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -563,7 +562,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -571,7 +570,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,7 +578,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -587,7 +586,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +594,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,7 +602,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -611,7 +610,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,7 +618,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,6 +628,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>